--- a/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>33,29%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,59; 40,8</t>
+          <t>13,08; 60,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,21; 38,47</t>
+          <t>15,54; 52,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,03; 37,66</t>
+          <t>18,71; 47,92</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>33,23%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 36,43</t>
+          <t>28,59; 40,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 30,42</t>
+          <t>26,21; 38,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,34; 32,4</t>
+          <t>29,03; 37,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>38,3%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 60,21</t>
+          <t>33,12; 47,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,54; 52,02</t>
+          <t>29,06; 47,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 47,92</t>
+          <t>33,14; 44,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 47,44</t>
+          <t>25,22; 36,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,06; 47,47</t>
+          <t>19,44; 30,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,14; 44,9</t>
+          <t>24,34; 32,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 39,65</t>
+          <t>22,61; 39,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,01; 37,88</t>
+          <t>22,39; 37,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 36,44</t>
+          <t>24,66; 36,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,59; 40,8</t>
+          <t>28,26; 39,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 38,47</t>
+          <t>26,34; 38,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,03; 37,66</t>
+          <t>29,38; 37,66</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 47,44</t>
+          <t>33,01; 47,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,06; 47,47</t>
+          <t>29,34; 48,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,14; 44,9</t>
+          <t>33,37; 45,0</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,22; 36,43</t>
+          <t>25,18; 37,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,44; 30,42</t>
+          <t>19,91; 30,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,34; 32,4</t>
+          <t>23,97; 32,12</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,15; 37,8</t>
+          <t>30,97; 37,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,7; 34,93</t>
+          <t>27,73; 35,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,31; 35,46</t>
+          <t>30,33; 35,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,08; 60,21</t>
+          <t>14,69; 63,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 52,02</t>
+          <t>17,21; 53,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 47,92</t>
+          <t>20,61; 47,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 39,9</t>
+          <t>22,4; 39,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,39; 37,74</t>
+          <t>22,83; 37,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,66; 36,73</t>
+          <t>24,89; 36,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 39,41</t>
+          <t>28,16; 39,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,34; 38,54</t>
+          <t>26,73; 38,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,66</t>
+          <t>29,21; 37,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,01; 47,58</t>
+          <t>32,92; 46,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 48,12</t>
+          <t>28,98; 47,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,37; 45,0</t>
+          <t>33,15; 44,8</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 37,07</t>
+          <t>25,28; 37,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,91; 30,48</t>
+          <t>19,68; 31,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 32,12</t>
+          <t>23,95; 32,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,97; 37,73</t>
+          <t>30,96; 37,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 35,5</t>
+          <t>27,9; 34,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,33; 35,16</t>
+          <t>30,27; 35,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>31,23%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 63,11</t>
+          <t>23,69; 38,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 53,93</t>
+          <t>23,5; 42,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 47,83</t>
+          <t>26,05; 37,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>35,12%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,4; 39,42</t>
+          <t>28,14; 41,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,83; 37,82</t>
+          <t>30,06; 43,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 36,41</t>
+          <t>30,62; 40,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>41,39%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,16; 39,78</t>
+          <t>30,01; 63,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,73; 38,84</t>
+          <t>33,26; 47,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,21; 37,4</t>
+          <t>34,36; 55,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>28,53%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,92; 46,82</t>
+          <t>19,88; 31,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 47,8</t>
+          <t>25,59; 36,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 44,8</t>
+          <t>24,85; 33,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>34,48%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,28; 37,67</t>
+          <t>29,47; 44,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,68; 31,02</t>
+          <t>31,8; 38,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,95; 32,11</t>
+          <t>31,76; 39,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>34,11%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>31,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>30,96; 37,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27,9; 34,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30,27; 35,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
